--- a/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>24559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15497</v>
+        <v>15910</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38073</v>
+        <v>39401</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07728673442769426</v>
+        <v>0.07728673442769428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04876915572391753</v>
+        <v>0.05006834329399216</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1198131127551975</v>
+        <v>0.1239938025803817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>5439</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2649</v>
+        <v>2600</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10436</v>
+        <v>10757</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01720860321604198</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008381941667010473</v>
+        <v>0.008225296417706399</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03302032680682426</v>
+        <v>0.03403576901330402</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -783,19 +783,19 @@
         <v>29998</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19950</v>
+        <v>20787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44611</v>
+        <v>45808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04732853124235793</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03147584278113929</v>
+        <v>0.03279575477467961</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07038301470588436</v>
+        <v>0.07227192671106178</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>260800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>246133</v>
+        <v>244125</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>274111</v>
+        <v>272927</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.820728000719017</v>
+        <v>0.8207280007190171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7745705043655365</v>
+        <v>0.7682514397661538</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8626162762549109</v>
+        <v>0.8588902960784306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>432</v>
@@ -833,19 +833,19 @@
         <v>259594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248528</v>
+        <v>248885</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268649</v>
+        <v>269160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8213424990879309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7863278809721209</v>
+        <v>0.7874573647986383</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.84998992476757</v>
+        <v>0.8516075940175467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>702</v>
@@ -854,19 +854,19 @@
         <v>520395</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>502578</v>
+        <v>500369</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>538024</v>
+        <v>535635</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8210344228167371</v>
+        <v>0.821034422816737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7929251889276813</v>
+        <v>0.789439866271517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8488482094672942</v>
+        <v>0.8450800602895626</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>32408</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23398</v>
+        <v>23476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44815</v>
+        <v>44230</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1019852648532887</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07363413126475757</v>
+        <v>0.07387894318100797</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1410300630328802</v>
+        <v>0.139188494666324</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>96</v>
@@ -904,19 +904,19 @@
         <v>50540</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41914</v>
+        <v>41442</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60646</v>
+        <v>60931</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1599069445518581</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1326125085690597</v>
+        <v>0.131121025290667</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1918791126727712</v>
+        <v>0.1927819242284498</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>133</v>
@@ -925,19 +925,19 @@
         <v>82948</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68916</v>
+        <v>69499</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>97611</v>
+        <v>98890</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1308681447673224</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1087297739534582</v>
+        <v>0.1096500568607224</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1540027137232393</v>
+        <v>0.1560197113226019</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2502</v>
+        <v>2442</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001541953144169033</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.00791668051021004</v>
+        <v>0.007725525086908021</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2468</v>
+        <v>2776</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0007689011735825205</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.003893942450318453</v>
+        <v>0.004379679320323454</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>301151</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>274889</v>
+        <v>273199</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>328554</v>
+        <v>331191</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5675161469608861</v>
+        <v>0.5675161469608863</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5180256353186152</v>
+        <v>0.51484094099426</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6191572263184779</v>
+        <v>0.6241275782214699</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>304</v>
@@ -1113,19 +1113,19 @@
         <v>241462</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>220598</v>
+        <v>221318</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>264128</v>
+        <v>263325</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.4438821616206472</v>
+        <v>0.4438821616206471</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4055282731803748</v>
+        <v>0.4068505466502716</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4855496657558163</v>
+        <v>0.4840727178970983</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>514</v>
@@ -1134,19 +1134,19 @@
         <v>542613</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>507928</v>
+        <v>508113</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>577745</v>
+        <v>578664</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5049322982862469</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4726557144820575</v>
+        <v>0.4728283843221885</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5376251551932728</v>
+        <v>0.5384799762089908</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>192914</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>166509</v>
+        <v>165416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>220104</v>
+        <v>219984</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3635444344555171</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3137853240414666</v>
+        <v>0.3117257368295787</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4147850569913455</v>
+        <v>0.4145581875844926</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>349</v>
@@ -1184,19 +1184,19 @@
         <v>260780</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>237549</v>
+        <v>239308</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>280581</v>
+        <v>282281</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4793948788691915</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4366888425126093</v>
+        <v>0.4399224912619601</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5157942457863623</v>
+        <v>0.5189195943077261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>495</v>
@@ -1205,19 +1205,19 @@
         <v>453694</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>419896</v>
+        <v>419052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>488166</v>
+        <v>486726</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4221882342337271</v>
+        <v>0.422188234233727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3907370688971027</v>
+        <v>0.3899520224767025</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4542662975732263</v>
+        <v>0.4529265457776334</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>32338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21078</v>
+        <v>21064</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50250</v>
+        <v>50501</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06094010227015462</v>
+        <v>0.06094010227015463</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0397210145451816</v>
+        <v>0.03969430139509647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09469511318139071</v>
+        <v>0.09516870110815716</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -1255,19 +1255,19 @@
         <v>25087</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18080</v>
+        <v>18201</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34493</v>
+        <v>33245</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04611785299040232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03323731570961939</v>
+        <v>0.0334582878940093</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06340918555785893</v>
+        <v>0.06111401976942363</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -1276,19 +1276,19 @@
         <v>57425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43152</v>
+        <v>42464</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>77433</v>
+        <v>76528</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05343704068568039</v>
+        <v>0.05343704068568037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04015579721221606</v>
+        <v>0.03951492411761519</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07205585722159266</v>
+        <v>0.07121329201007394</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>4245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>945</v>
+        <v>1445</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10768</v>
+        <v>10117</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007999316313442003</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001780495510425345</v>
+        <v>0.002722994844295361</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02029131806505003</v>
+        <v>0.01906454289563424</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1326,19 +1326,19 @@
         <v>16649</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10670</v>
+        <v>11408</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24191</v>
+        <v>24882</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03060510651975893</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01961423052314597</v>
+        <v>0.02097220942642727</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04447009884371279</v>
+        <v>0.04574022650803278</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -1347,19 +1347,19 @@
         <v>20893</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13779</v>
+        <v>14030</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30322</v>
+        <v>30523</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01944242679434569</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01282227109660123</v>
+        <v>0.01305591198332495</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02821678296573539</v>
+        <v>0.02840349280163582</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>154105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137867</v>
+        <v>137809</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172212</v>
+        <v>171839</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4908585539094868</v>
+        <v>0.4908585539094869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4391369902245147</v>
+        <v>0.4389525337848338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5485323613736831</v>
+        <v>0.5473455423658066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>178</v>
@@ -1472,19 +1472,19 @@
         <v>132380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117848</v>
+        <v>116738</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>147565</v>
+        <v>148005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3771738268831549</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3357700097938096</v>
+        <v>0.3326072813128308</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4204394475383725</v>
+        <v>0.4216932374673816</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>334</v>
@@ -1493,19 +1493,19 @@
         <v>286485</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>263252</v>
+        <v>264035</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>308457</v>
+        <v>311755</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4308507086943634</v>
+        <v>0.4308507086943633</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3959105585301998</v>
+        <v>0.3970873603718602</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4638959677025646</v>
+        <v>0.4688551250253766</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>100260</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>85228</v>
+        <v>85788</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>115976</v>
+        <v>116925</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3193504125857472</v>
+        <v>0.3193504125857473</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2714695569442145</v>
+        <v>0.2732530112971886</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3694081317567852</v>
+        <v>0.3724304097589635</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>200</v>
@@ -1543,19 +1543,19 @@
         <v>131935</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>116446</v>
+        <v>117288</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>146639</v>
+        <v>147089</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3759064283719131</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3317749372280162</v>
+        <v>0.3341727760636642</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4178007420895929</v>
+        <v>0.4190827118735738</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>326</v>
@@ -1564,19 +1564,19 @@
         <v>232195</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>210582</v>
+        <v>210716</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>253143</v>
+        <v>252596</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3492031881524621</v>
+        <v>0.3492031881524622</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3166994267637009</v>
+        <v>0.3169009516397582</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3807081344010435</v>
+        <v>0.3798843082845804</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>46406</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35806</v>
+        <v>35566</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58497</v>
+        <v>59633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1478131093824259</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1140492751216416</v>
+        <v>0.1132865926319429</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1863267599166577</v>
+        <v>0.1899443758347746</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -1614,19 +1614,19 @@
         <v>67009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56158</v>
+        <v>55943</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78259</v>
+        <v>79241</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1909193163324306</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1600025000158712</v>
+        <v>0.1593905423426115</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2229722488298582</v>
+        <v>0.2257700879595515</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -1635,19 +1635,19 @@
         <v>113414</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97578</v>
+        <v>97341</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130035</v>
+        <v>129239</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1705664788290344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1467501601279325</v>
+        <v>0.1463940435283535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1955620222057477</v>
+        <v>0.1943658966829022</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>13179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7924</v>
+        <v>7891</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20896</v>
+        <v>20686</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04197792412233989</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02523887373915476</v>
+        <v>0.02513349381473162</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06655805020809406</v>
+        <v>0.06588972597417511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -1685,19 +1685,19 @@
         <v>19655</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14219</v>
+        <v>13761</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26419</v>
+        <v>26600</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05600042841250115</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04051343855556552</v>
+        <v>0.03920706079240356</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07527306375074429</v>
+        <v>0.07578916159183377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -1706,19 +1706,19 @@
         <v>32834</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24729</v>
+        <v>24465</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42263</v>
+        <v>42477</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04937962432414011</v>
+        <v>0.04937962432414012</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03718978115359867</v>
+        <v>0.03679274759156715</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06355957674935378</v>
+        <v>0.06388181840431212</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>220477</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>197759</v>
+        <v>195239</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>243836</v>
+        <v>242431</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6137864880834941</v>
+        <v>0.6137864880834939</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5505405700048348</v>
+        <v>0.5435252248760822</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.678816833593275</v>
+        <v>0.6749039703776759</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>264</v>
@@ -1831,19 +1831,19 @@
         <v>212232</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189699</v>
+        <v>193799</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>229932</v>
+        <v>233134</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5285197089531279</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4724060469336763</v>
+        <v>0.4826156030752125</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5725975594024661</v>
+        <v>0.5805721096818587</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>418</v>
@@ -1852,19 +1852,19 @@
         <v>432708</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>399870</v>
+        <v>402101</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>459968</v>
+        <v>462460</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5687797704754289</v>
+        <v>0.568779770475429</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5256152074000507</v>
+        <v>0.5285474356519893</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6046121665721466</v>
+        <v>0.6078870298429784</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>101766</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81543</v>
+        <v>82306</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122877</v>
+        <v>123240</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2833056610639758</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2270086925934593</v>
+        <v>0.2291331378627995</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.342078489506286</v>
+        <v>0.3430869078750387</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -1902,19 +1902,19 @@
         <v>138185</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>120806</v>
+        <v>119488</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>158006</v>
+        <v>155390</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3441212822043732</v>
+        <v>0.3441212822043731</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3008418718637382</v>
+        <v>0.2975609173429534</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3934810191795667</v>
+        <v>0.3869657786475272</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>309</v>
@@ -1923,19 +1923,19 @@
         <v>239950</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>214699</v>
+        <v>211660</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>267546</v>
+        <v>265496</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3154062225574515</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2822148216201514</v>
+        <v>0.2782197279056796</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3516793016715575</v>
+        <v>0.3489844971417563</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>25325</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15484</v>
+        <v>15592</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40850</v>
+        <v>40522</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0705030515105621</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04310481797030843</v>
+        <v>0.04340667950264691</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1137235773657513</v>
+        <v>0.1128090659101785</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>64</v>
@@ -1973,19 +1973,19 @@
         <v>38228</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29258</v>
+        <v>29667</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>51484</v>
+        <v>51482</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.0951987934762696</v>
+        <v>0.09519879347626958</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07286095348501914</v>
+        <v>0.07387985209904974</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1282098839571248</v>
+        <v>0.1282054392177059</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>85</v>
@@ -1994,19 +1994,19 @@
         <v>63553</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49491</v>
+        <v>48680</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>84166</v>
+        <v>83700</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08353830739929317</v>
+        <v>0.08353830739929319</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0650535624046073</v>
+        <v>0.06398858030074958</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1106331542034241</v>
+        <v>0.1100201877504766</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>11640</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6350</v>
+        <v>5497</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21159</v>
+        <v>21559</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03240479934196815</v>
+        <v>0.03240479934196816</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01767800628553313</v>
+        <v>0.01530396400311909</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05890512234476918</v>
+        <v>0.06001810501308029</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2044,19 +2044,19 @@
         <v>12914</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8024</v>
+        <v>7430</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20502</v>
+        <v>19830</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03216021536622932</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01998251192873113</v>
+        <v>0.01850228675039609</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05105566901948347</v>
+        <v>0.04938248991591974</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -2065,19 +2065,19 @@
         <v>24554</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16849</v>
+        <v>16152</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36588</v>
+        <v>36321</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03227569956782628</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0221479456601639</v>
+        <v>0.02123163591219964</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04809399601333925</v>
+        <v>0.04774292195669447</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>32194</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23679</v>
+        <v>23018</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45726</v>
+        <v>43253</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1573913867118831</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1157648420901095</v>
+        <v>0.1125334965997828</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2235493462825221</v>
+        <v>0.2114562693150296</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>38</v>
@@ -2190,19 +2190,19 @@
         <v>21830</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15862</v>
+        <v>15340</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31001</v>
+        <v>30526</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09659180569988116</v>
+        <v>0.09659180569988114</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07018372684325141</v>
+        <v>0.06787638965600112</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1371718416277654</v>
+        <v>0.1350698747563321</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>72</v>
@@ -2211,19 +2211,19 @@
         <v>54024</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>41357</v>
+        <v>42021</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>67540</v>
+        <v>68994</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1254767361015588</v>
+        <v>0.1254767361015587</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09605713321008091</v>
+        <v>0.09759910411187314</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1568704177309998</v>
+        <v>0.1602458266104434</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>116597</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>103861</v>
+        <v>105485</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>129522</v>
+        <v>129613</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5700277360804441</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5077606982311001</v>
+        <v>0.5157022021990978</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6332115440255309</v>
+        <v>0.6336608577912723</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>244</v>
@@ -2261,19 +2261,19 @@
         <v>115898</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104834</v>
+        <v>105089</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>126525</v>
+        <v>126789</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5128200857769301</v>
+        <v>0.5128200857769302</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4638613889675798</v>
+        <v>0.4649905066391031</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5598419440007077</v>
+        <v>0.5610087721531771</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>400</v>
@@ -2282,19 +2282,19 @@
         <v>232496</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>216572</v>
+        <v>216929</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>249631</v>
+        <v>249265</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5399985460550416</v>
+        <v>0.5399985460550414</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5030134364136276</v>
+        <v>0.5038438374199126</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5797976350387632</v>
+        <v>0.5789473699199864</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>54496</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44103</v>
+        <v>44583</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64969</v>
+        <v>65218</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2664210264316352</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2156153496282896</v>
+        <v>0.2179576795484631</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3176260949307254</v>
+        <v>0.3188419146144387</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>201</v>
@@ -2332,19 +2332,19 @@
         <v>85534</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75718</v>
+        <v>75879</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>96011</v>
+        <v>95609</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3784653641644293</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3350313713259567</v>
+        <v>0.3357444013003631</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4248232670540907</v>
+        <v>0.4230429050609344</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>286</v>
@@ -2353,19 +2353,19 @@
         <v>140030</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>125853</v>
+        <v>125419</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>155484</v>
+        <v>154898</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3252348510022589</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2923082732701933</v>
+        <v>0.2912991195497808</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3611295750520346</v>
+        <v>0.3597686907516394</v>
       </c>
     </row>
     <row r="27">
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3821</v>
+        <v>4407</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.006159850776037663</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01868120031727594</v>
+        <v>0.02154718197303226</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -2403,19 +2403,19 @@
         <v>2740</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1162</v>
+        <v>1102</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6137</v>
+        <v>5908</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0121227443587594</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.005143554099219021</v>
+        <v>0.004876125555327468</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02715452493599515</v>
+        <v>0.02614057363434419</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -2424,19 +2424,19 @@
         <v>4000</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1844</v>
+        <v>1875</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7753</v>
+        <v>7998</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.009289866841140861</v>
+        <v>0.009289866841140859</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.004284050709387767</v>
+        <v>0.00435559357928224</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01800838454046638</v>
+        <v>0.01857643129923733</v>
       </c>
     </row>
     <row r="28">
@@ -2528,19 +2528,19 @@
         <v>117110</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>101718</v>
+        <v>103379</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>131648</v>
+        <v>132085</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4326087487020749</v>
+        <v>0.4326087487020748</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.375749649228929</v>
+        <v>0.3818848244741035</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4863120561815024</v>
+        <v>0.4879262138260571</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>178</v>
@@ -2549,19 +2549,19 @@
         <v>121066</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>108170</v>
+        <v>108800</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>133909</v>
+        <v>133724</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4590163396899468</v>
+        <v>0.4590163396899466</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.410122181617679</v>
+        <v>0.4125116426217577</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5077119369899191</v>
+        <v>0.5070119642845806</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>320</v>
@@ -2570,19 +2570,19 @@
         <v>238176</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>218466</v>
+        <v>218741</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>257249</v>
+        <v>256886</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4456406788624782</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4087622136083799</v>
+        <v>0.4092779929622</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.481327210719578</v>
+        <v>0.4806484052377304</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>98846</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>85110</v>
+        <v>84723</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>113203</v>
+        <v>112982</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3651418832451315</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3143989407510827</v>
+        <v>0.3129710597582865</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4181741634372886</v>
+        <v>0.4173596911040329</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>164</v>
@@ -2620,19 +2620,19 @@
         <v>85547</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>73731</v>
+        <v>73904</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>96675</v>
+        <v>97346</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3243499839117388</v>
+        <v>0.3243499839117387</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2795470091499275</v>
+        <v>0.2802042430901621</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3665417879656447</v>
+        <v>0.3690860391949817</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>307</v>
@@ -2641,19 +2641,19 @@
         <v>184394</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>165835</v>
+        <v>167258</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>204094</v>
+        <v>204305</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3450114145678816</v>
+        <v>0.3450114145678817</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3102875929448901</v>
+        <v>0.3129492373351972</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3818722975132695</v>
+        <v>0.3822661366379273</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>40862</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>31771</v>
+        <v>32124</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>51870</v>
+        <v>51464</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1509462865814138</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1173636001882652</v>
+        <v>0.1186662589080524</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1916091655271184</v>
+        <v>0.190109449803395</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>93</v>
@@ -2691,19 +2691,19 @@
         <v>44643</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36130</v>
+        <v>36818</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>54795</v>
+        <v>55022</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1692619899366336</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1369859012694831</v>
+        <v>0.1395934866502823</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2077542650971663</v>
+        <v>0.2086157703853642</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>158</v>
@@ -2712,19 +2712,19 @@
         <v>85505</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>71812</v>
+        <v>73840</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>99601</v>
+        <v>100287</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1599849363800081</v>
+        <v>0.1599849363800082</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1343651377920593</v>
+        <v>0.1381591246541194</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1863589330806652</v>
+        <v>0.1876419486069177</v>
       </c>
     </row>
     <row r="32">
@@ -2741,19 +2741,19 @@
         <v>13888</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8719</v>
+        <v>9341</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21802</v>
+        <v>21696</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05130308147137989</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03220723836846003</v>
+        <v>0.03450761353658478</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08053895717579551</v>
+        <v>0.0801455563515958</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -2762,19 +2762,19 @@
         <v>12494</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8191</v>
+        <v>8373</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17944</v>
+        <v>18007</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.0473716864616809</v>
+        <v>0.04737168646168088</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03105677393579503</v>
+        <v>0.03174450691346072</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06803326542994653</v>
+        <v>0.06827135416697082</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>46</v>
@@ -2783,19 +2783,19 @@
         <v>26382</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19598</v>
+        <v>19468</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34675</v>
+        <v>34961</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.04936297018963195</v>
+        <v>0.04936297018963194</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03666839023777855</v>
+        <v>0.03642648886777033</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06487907379463374</v>
+        <v>0.06541401045701327</v>
       </c>
     </row>
     <row r="33">
@@ -2887,19 +2887,19 @@
         <v>322501</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>291693</v>
+        <v>292764</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>352706</v>
+        <v>354852</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.4493034315113303</v>
+        <v>0.4493034315113302</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.406382454386675</v>
+        <v>0.4078754012085674</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4913859265988157</v>
+        <v>0.4943744354770176</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>354</v>
@@ -2908,19 +2908,19 @@
         <v>295567</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>271412</v>
+        <v>273172</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>324376</v>
+        <v>324390</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3837111741314725</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3523526220179838</v>
+        <v>0.3546377566436563</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4211117017177503</v>
+        <v>0.4211290434132213</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>608</v>
@@ -2929,19 +2929,19 @@
         <v>618068</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>580835</v>
+        <v>577536</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>657993</v>
+        <v>660409</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.4153500693225696</v>
+        <v>0.4153500693225697</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3903290608937035</v>
+        <v>0.3881118577690196</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4421801754073634</v>
+        <v>0.4438041740089803</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>297552</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>270435</v>
+        <v>267642</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>329197</v>
+        <v>325879</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.414545287320893</v>
+        <v>0.4145452873208929</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.376766233985266</v>
+        <v>0.3728753108595512</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4586324553546126</v>
+        <v>0.4540103973622171</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>446</v>
@@ -2979,19 +2979,19 @@
         <v>346356</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>320004</v>
+        <v>320710</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>372013</v>
+        <v>369737</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4496460744229039</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4154350232406618</v>
+        <v>0.4163524297630969</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4829549969191664</v>
+        <v>0.4799999509444473</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>704</v>
@@ -3000,19 +3000,19 @@
         <v>643908</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>601655</v>
+        <v>603422</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>680776</v>
+        <v>682948</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.4327149583337881</v>
+        <v>0.4327149583337883</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4043203576459309</v>
+        <v>0.4055081418789392</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4574907694556147</v>
+        <v>0.4589506819738141</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>79385</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>63114</v>
+        <v>61693</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>101471</v>
+        <v>101341</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1105982179380578</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08792902833188118</v>
+        <v>0.08594935294318257</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1413675731963296</v>
+        <v>0.1411873830405445</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>116</v>
@@ -3050,19 +3050,19 @@
         <v>95238</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>79625</v>
+        <v>78511</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>115600</v>
+        <v>114101</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1236401095383901</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1033702080631619</v>
+        <v>0.1019247804474854</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1500743173190783</v>
+        <v>0.1481280587528557</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>185</v>
@@ -3071,19 +3071,19 @@
         <v>174623</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>151025</v>
+        <v>148745</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>202202</v>
+        <v>203608</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1173492597045914</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1014905351548554</v>
+        <v>0.09995843046486258</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1358827587163348</v>
+        <v>0.1368275166497636</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>18341</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10738</v>
+        <v>10750</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28818</v>
+        <v>29147</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.02555306322971889</v>
+        <v>0.02555306322971888</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01495977560154634</v>
+        <v>0.01497636407824741</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04014926121808426</v>
+        <v>0.04060687346237004</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>42</v>
@@ -3121,19 +3121,19 @@
         <v>33124</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>24054</v>
+        <v>24001</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>45486</v>
+        <v>43986</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.04300264190723337</v>
+        <v>0.04300264190723338</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03122681866920349</v>
+        <v>0.03115851163133861</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0590509414194411</v>
+        <v>0.05710350888441899</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>58</v>
@@ -3142,19 +3142,19 @@
         <v>51466</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>38586</v>
+        <v>38990</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>66397</v>
+        <v>67383</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03458571263905091</v>
+        <v>0.0345857126390509</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02593026238617085</v>
+        <v>0.02620203515228202</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04461938615523137</v>
+        <v>0.04528262097247441</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>340948</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>312039</v>
+        <v>310396</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>368587</v>
+        <v>369268</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.427214012214955</v>
+        <v>0.4272140122149551</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3909915363614364</v>
+        <v>0.3889326596540409</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4618470589003341</v>
+        <v>0.4626998914286031</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>344</v>
@@ -3267,19 +3267,19 @@
         <v>301852</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>276204</v>
+        <v>275062</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>328095</v>
+        <v>328365</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3630943570605019</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3322433769799867</v>
+        <v>0.3308699514622161</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3946621985336891</v>
+        <v>0.3949871433760981</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>632</v>
@@ -3288,19 +3288,19 @@
         <v>642799</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>604102</v>
+        <v>602231</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>680780</v>
+        <v>686709</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3944997760438377</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3707507216712557</v>
+        <v>0.3696021798010619</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4178094124529727</v>
+        <v>0.4214481693352694</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>325724</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>298208</v>
+        <v>296293</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>354838</v>
+        <v>353357</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4081389563674962</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3736604399030008</v>
+        <v>0.3712614646847621</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4446188603175837</v>
+        <v>0.442763562108249</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>479</v>
@@ -3338,19 +3338,19 @@
         <v>355616</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>330566</v>
+        <v>328624</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>380970</v>
+        <v>380416</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4277674579130758</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.397635065195548</v>
+        <v>0.3952988749913328</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4582657051369911</v>
+        <v>0.4575992549959892</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>810</v>
@@ -3359,19 +3359,19 @@
         <v>681341</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>648007</v>
+        <v>645032</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>720543</v>
+        <v>719087</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.4181535366658532</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.39769576446176</v>
+        <v>0.3958704002118022</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4422128758327327</v>
+        <v>0.441319240949725</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>114934</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>97744</v>
+        <v>97639</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>134825</v>
+        <v>136293</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.144014783926939</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1224752286947716</v>
+        <v>0.1223435082806158</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1689385145015824</v>
+        <v>0.1707774243424794</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>216</v>
@@ -3409,19 +3409,19 @@
         <v>156240</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>136110</v>
+        <v>138077</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>174130</v>
+        <v>176972</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1879400650925262</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1637252029068755</v>
+        <v>0.1660919802771643</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2094592974784205</v>
+        <v>0.2128782148396102</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>344</v>
@@ -3430,19 +3430,19 @@
         <v>271175</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>245586</v>
+        <v>242464</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>298574</v>
+        <v>298684</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1664257282539524</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1507215478021695</v>
+        <v>0.1488051344048409</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1832413486790606</v>
+        <v>0.1833089279865561</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>16466</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10008</v>
+        <v>9833</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>26335</v>
+        <v>26610</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02063224749060963</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01254002405294453</v>
+        <v>0.01232094716869615</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03299790234547288</v>
+        <v>0.03334326001251052</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>23</v>
@@ -3480,19 +3480,19 @@
         <v>17623</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>11241</v>
+        <v>11518</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>26530</v>
+        <v>26529</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02119811993389625</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01352216647441659</v>
+        <v>0.01385547378046279</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03191324723932809</v>
+        <v>0.03191118878103669</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>38</v>
@@ -3501,19 +3501,19 @@
         <v>34089</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>24425</v>
+        <v>24052</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>46624</v>
+        <v>47968</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02092095903635661</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01499041190946851</v>
+        <v>0.01476122278074994</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02861428970238287</v>
+        <v>0.0294391063327669</v>
       </c>
     </row>
     <row r="43">
@@ -3605,19 +3605,19 @@
         <v>1513044</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1450404</v>
+        <v>1448498</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1579261</v>
+        <v>1585067</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4307381886268605</v>
+        <v>0.4307381886268606</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4129054789151938</v>
+        <v>0.4123630386398477</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.449589142698041</v>
+        <v>0.4512419471670017</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1669</v>
@@ -3626,19 +3626,19 @@
         <v>1331827</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1281274</v>
+        <v>1280262</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1386930</v>
+        <v>1387966</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3595698982142326</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3459212384353534</v>
+        <v>0.3456481749619632</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3744466156887806</v>
+        <v>0.3747264367984442</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2930</v>
@@ -3647,19 +3647,19 @@
         <v>2844872</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2758009</v>
+        <v>2763992</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2930870</v>
+        <v>2934465</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3942109207358679</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3821744636909282</v>
+        <v>0.3830034585482122</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4061276670809728</v>
+        <v>0.4066257829534951</v>
       </c>
     </row>
     <row r="45">
@@ -3676,19 +3676,19 @@
         <v>1494460</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1432733</v>
+        <v>1431694</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1560528</v>
+        <v>1564499</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.4254475862119282</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4078750678906184</v>
+        <v>0.407579110857184</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4442561026301529</v>
+        <v>0.4453864785212714</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2526</v>
@@ -3697,19 +3697,19 @@
         <v>1693913</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1641877</v>
+        <v>1640537</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1753795</v>
+        <v>1749604</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.4573265666087384</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.4432777750606918</v>
+        <v>0.4429159833549037</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.4734936392798559</v>
+        <v>0.4723622901658014</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>4053</v>
@@ -3718,19 +3718,19 @@
         <v>3188373</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>3109682</v>
+        <v>3105587</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>3278004</v>
+        <v>3274837</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.4418095368825793</v>
+        <v>0.4418095368825792</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.4309054574118611</v>
+        <v>0.4303380384694795</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.4542296582668883</v>
+        <v>0.4537907308243793</v>
       </c>
     </row>
     <row r="46">
@@ -3747,19 +3747,19 @@
         <v>426154</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>388620</v>
+        <v>383810</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>467432</v>
+        <v>468421</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1213187353987604</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1106336496870671</v>
+        <v>0.1092642627995567</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1330698804533241</v>
+        <v>0.1333516961310523</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>939</v>
@@ -3768,19 +3768,19 @@
         <v>562520</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>530017</v>
+        <v>531745</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>601078</v>
+        <v>599392</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.151870334543739</v>
+        <v>0.1518703345437391</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1430953093535298</v>
+        <v>0.1435618118093875</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.162280532136376</v>
+        <v>0.1618253373858431</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1425</v>
@@ -3789,19 +3789,19 @@
         <v>988673</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>936790</v>
+        <v>937700</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1047927</v>
+        <v>1042212</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1369994049778184</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1298099826896642</v>
+        <v>0.1299361269670918</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1452102279007052</v>
+        <v>0.1444182163696284</v>
       </c>
     </row>
     <row r="47">
@@ -3818,19 +3818,19 @@
         <v>79019</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>63246</v>
+        <v>62815</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>98205</v>
+        <v>97537</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02249548976245088</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01800508817111636</v>
+        <v>0.01788223785904175</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02795724835839889</v>
+        <v>0.02776723113268535</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>176</v>
@@ -3839,19 +3839,19 @@
         <v>115686</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>99144</v>
+        <v>99733</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>132831</v>
+        <v>136848</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03123320063328991</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02676713872223161</v>
+        <v>0.02692613650156579</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03586205813343375</v>
+        <v>0.03694650436428704</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>262</v>
@@ -3860,19 +3860,19 @@
         <v>194705</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>171197</v>
+        <v>170989</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>220643</v>
+        <v>219249</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02698013740373445</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02372261272571326</v>
+        <v>0.02369376282714008</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03057427023232233</v>
+        <v>0.03038106582083199</v>
       </c>
     </row>
     <row r="48">
